--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:31:22+00:00</t>
+    <t>2024-12-26T15:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:51:21+00:00</t>
+    <t>2024-12-27T09:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T09:52:33+00:00</t>
+    <t>2024-12-27T10:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:08:00+00:00</t>
+    <t>2024-12-27T10:41:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:41:44+00:00</t>
+    <t>2024-12-31T09:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-31T09:40:44+00:00</t>
+    <t>2025-01-02T08:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:06:50+00:00</t>
+    <t>2025-01-02T08:36:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:36:24+00:00</t>
+    <t>2025-01-02T08:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:46:33+00:00</t>
+    <t>2025-01-02T15:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:15:39+00:00</t>
+    <t>2025-01-03T16:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T16:55:47+00:00</t>
+    <t>2025-01-07T16:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T16:15:18+00:00</t>
+    <t>2025-01-09T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="67">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T16:21:14+00:00</t>
+    <t>2025-01-11T17:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -559,7 +559,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -622,9 +622,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>38</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>32</v>
@@ -635,15 +633,13 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>40</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -662,29 +658,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:10:04+00:00</t>
+    <t>2025-01-11T17:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:18:32+00:00</t>
+    <t>2025-01-11T17:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:45:34+00:00</t>
+    <t>2025-01-12T18:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -12,12 +12,23 @@
     <sheet name="Mapping Table 2" r:id="rId6" sheetId="4"/>
     <sheet name="Mapping Table 3" r:id="rId7" sheetId="5"/>
     <sheet name="Mapping Table 4" r:id="rId8" sheetId="6"/>
+    <sheet name="Mapping Table 5" r:id="rId9" sheetId="7"/>
+    <sheet name="Mapping Table 6" r:id="rId10" sheetId="8"/>
+    <sheet name="Mapping Table 7" r:id="rId11" sheetId="9"/>
+    <sheet name="Mapping Table 8" r:id="rId12" sheetId="10"/>
+    <sheet name="Mapping Table 9" r:id="rId13" sheetId="11"/>
+    <sheet name="Mapping Table 10" r:id="rId14" sheetId="12"/>
+    <sheet name="Mapping Table 11" r:id="rId15" sheetId="13"/>
+    <sheet name="Mapping Table 12" r:id="rId16" sheetId="14"/>
+    <sheet name="Mapping Table 13" r:id="rId17" sheetId="15"/>
+    <sheet name="Mapping Table 14" r:id="rId18" sheetId="16"/>
+    <sheet name="Mapping Table 15" r:id="rId19" sheetId="17"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-12T18:13:34+00:00</t>
+    <t>2025-01-20T08:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -103,7 +114,7 @@
     <t>Target</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-inpatient-medicationrequest</t>
+    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-inpatient-medicationrequest3</t>
   </si>
   <si>
     <t>Display</t>
@@ -112,39 +123,126 @@
     <t>Relationship</t>
   </si>
   <si>
+    <t>Messages@Phast-id_message</t>
+  </si>
+  <si>
+    <t>equivalent</t>
+  </si>
+  <si>
+    <t>MedicationRequest.groupIdentifier.value</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Dh_prescription</t>
+  </si>
+  <si>
+    <t>MedicationRequest.authoredOn</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Unité_hébergement</t>
+  </si>
+  <si>
+    <t>MedicationRequest.supportingInformation.identifier</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Unité_resp_médicale</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.text</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Identifiant</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.authorReference.identifier.value</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Domaine_identification</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.authorReference.identifier.system</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Nom_usage</t>
+  </si>
+  <si>
+    <t>related-to</t>
+  </si>
+  <si>
+    <t>MedicationRequest.note.authorReference.display</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Prénom_usage</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Initiales</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Civilité</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Titre</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Nom_famille</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Identification_auteur/Prénoms</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Commentaire_structuré/Texte</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Rens_compl</t>
+  </si>
+  <si>
+    <t>MedicationRequest.supportingInformation.reference</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Rens_compl/Valeur_rens_compl</t>
+  </si>
+  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Id_élément_prescr</t>
   </si>
   <si>
-    <t>equivalent</t>
-  </si>
-  <si>
     <t>MedicationRequest.identifier.value</t>
   </si>
   <si>
-    <t>Messages@Phast-id_message</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.system</t>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Forme</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medicationReference.reference</t>
   </si>
   <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Libellé_élément_prescr</t>
   </si>
   <si>
-    <t>MedicationRequest.text</t>
-  </si>
-  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Urgent</t>
   </si>
   <si>
     <t>MedicationRequest.priority</t>
   </si>
   <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Id_prescripteur</t>
+  </si>
+  <si>
+    <t>MedicationRequest.requester</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Identification_prescripteur</t>
+  </si>
+  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Voie_administration</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.route.coding.code</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.route.text</t>
+  </si>
+  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Lieu_administration</t>
   </si>
   <si>
@@ -157,33 +255,45 @@
     <t>MedicationRequest.supportingInformation.display</t>
   </si>
   <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Posologie</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Dh_début_prescrite</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.boundsPeriod.start</t>
+  </si>
+  <si>
+    <t>not-related-to</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Dh_début</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Dh_fin_prescrite</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.boundsPeriod.end</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Dh_fin</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Indication</t>
+  </si>
+  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire</t>
   </si>
   <si>
-    <t>MedicationRequest.note.text</t>
-  </si>
-  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Identifiant</t>
   </si>
   <si>
-    <t>MedicationRequest.note.authorReference.identifier.value</t>
-  </si>
-  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Domaine_identification</t>
   </si>
   <si>
-    <t>MedicationRequest.note.authorReference.identifier.system</t>
-  </si>
-  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Nom_usage</t>
   </si>
   <si>
-    <t>related-to</t>
-  </si>
-  <si>
-    <t>MedicationRequest.note.authorReference.display</t>
-  </si>
-  <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Commentaire_structuré/Identification_auteur/Prénom_usage</t>
   </si>
   <si>
@@ -218,6 +328,30 @@
   </si>
   <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Conditions_application</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Composant_prescrit</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medicationReference</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Elément_posologie</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Composant_prescrit/Non_substituable</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowedBoolean</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Composant_prescrit/Référent_poso</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.extension($fr-basis-of-dose-component).valueReference</t>
   </si>
 </sst>
 </file>
@@ -488,7 +622,923 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -528,27 +1578,27 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -557,150 +1607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -740,189 +1647,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -969,14 +1703,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -989,74 +1723,368 @@
         <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:50:22+00:00</t>
+    <t>2025-01-20T08:59:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:59:15+00:00</t>
+    <t>2025-01-20T09:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:27:26+00:00</t>
+    <t>2025-01-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:49:22+00:00</t>
+    <t>2025-01-20T10:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T10:56:59+00:00</t>
+    <t>2025-01-20T12:54:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T12:54:51+00:00</t>
+    <t>2025-01-20T14:47:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T14:47:39+00:00</t>
+    <t>2025-02-04T14:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:42:57+00:00</t>
+    <t>2025-02-04T16:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:03:40+00:00</t>
+    <t>2025-02-04T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T17:43:23+00:00</t>
+    <t>2025-02-05T08:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T08:50:29+00:00</t>
+    <t>2025-02-05T09:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:01:25+00:00</t>
+    <t>2025-02-05T09:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:11:38+00:00</t>
+    <t>2025-02-13T15:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T15:32:59+00:00</t>
+    <t>2025-02-16T15:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -866,7 +866,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -960,30 +960,41 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>97</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D9" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T15:11:19+00:00</t>
+    <t>2025-02-19T13:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T13:44:58+00:00</t>
+    <t>2025-02-19T14:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:27:03+00:00</t>
+    <t>2025-02-19T14:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:43:26+00:00</t>
+    <t>2025-02-21T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T12:43:39+00:00</t>
+    <t>2025-02-21T14:39:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T14:39:11+00:00</t>
+    <t>2025-02-21T15:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:02:48+00:00</t>
+    <t>2025-02-21T15:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:30:48+00:00</t>
+    <t>2025-02-24T10:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T10:42:42+00:00</t>
+    <t>2025-02-24T15:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T15:51:28+00:00</t>
+    <t>2025-04-09T16:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Target</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-inpatient-medicationrequest3</t>
+    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-inpatient-medicationrequest</t>
   </si>
   <si>
     <t>Display</t>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>MedicationRequest.medicationReference</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medicationCodeableConcept</t>
   </si>
   <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Elément_posologie</t>
@@ -1003,7 +1006,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1051,6 +1054,19 @@
         <v>101</v>
       </c>
       <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1097,14 +1113,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1196,14 +1212,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1252,14 +1268,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2"/>
     </row>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-09T16:24:06+00:00</t>
+    <t>2025-04-10T12:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T12:28:22+00:00</t>
+    <t>2025-04-10T13:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:04:19+00:00</t>
+    <t>2025-04-10T13:16:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:16:38+00:00</t>
+    <t>2025-04-10T13:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:34:50+00:00</t>
+    <t>2025-04-11T07:36:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:36:18+00:00</t>
+    <t>2025-04-12T14:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-12T14:29:05+00:00</t>
+    <t>2025-04-14T11:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T11:52:10+00:00</t>
+    <t>2025-04-14T12:50:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T12:50:20+00:00</t>
+    <t>2025-04-14T13:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:17:43+00:00</t>
+    <t>2025-04-14T13:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:53:40+00:00</t>
+    <t>2025-04-14T14:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T14:45:12+00:00</t>
+    <t>2025-04-14T15:18:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:18:15+00:00</t>
+    <t>2025-04-14T15:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:39:56+00:00</t>
+    <t>2025-04-14T16:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T16:50:44+00:00</t>
+    <t>2025-04-14T17:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T17:04:46+00:00</t>
+    <t>2025-04-15T06:58:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T06:58:45+00:00</t>
+    <t>2025-04-15T07:12:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:12:06+00:00</t>
+    <t>2025-04-15T07:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:37:51+00:00</t>
+    <t>2025-04-15T07:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:52:12+00:00</t>
+    <t>2025-04-15T15:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T15:09:09+00:00</t>
+    <t>2025-04-16T14:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T14:17:39+00:00</t>
+    <t>2025-04-24T15:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="111">
   <si>
     <t>Property</t>
   </si>
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-24T15:43:49+00:00</t>
+    <t>2025-04-25T13:21:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>MedicationRequest.priority</t>
+  </si>
+  <si>
+    <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Fourniture</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].extension.valueBoolean</t>
   </si>
   <si>
     <t>Messages/M_prescription_médicaments/Prescription/Elément_prescr_médic/Id_prescripteur</t>
@@ -665,7 +671,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -721,7 +727,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -734,7 +740,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -747,7 +753,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -760,7 +766,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -773,7 +779,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -786,7 +792,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -799,7 +805,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -812,7 +818,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -825,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -838,7 +844,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -851,7 +857,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -907,14 +913,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -925,7 +931,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -936,7 +942,7 @@
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -947,7 +953,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -958,7 +964,7 @@
         <v>32</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -969,26 +975,26 @@
         <v>32</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1044,27 +1050,27 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1113,14 +1119,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1212,14 +1218,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1268,14 +1274,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1692,7 +1698,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1799,7 +1805,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>66</v>
@@ -1815,9 +1821,22 @@
         <v>46</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1864,53 +1883,53 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1959,33 +1978,33 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2041,75 +2060,75 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2"/>
     </row>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T13:21:13+00:00</t>
+    <t>2025-04-30T11:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
